--- a/data/SystemParameter.xlsx
+++ b/data/SystemParameter.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\labWork\2021年3月4日-竞赛系统测试\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D3808B0-22A7-4062-87D1-F1DCCD458B19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCD3F4D-B970-425B-A9DA-BC9004238985}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="24300" windowHeight="14850" tabRatio="790" activeTab="2"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="24300" windowHeight="14850" tabRatio="790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="规则" sheetId="4" r:id="rId1"/>
@@ -25,17 +25,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>dm02</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -48,18 +49,19 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>dm02</author>
     <author>SummeR</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -67,12 +69,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -80,12 +83,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -94,12 +98,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -108,12 +113,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -121,12 +127,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02
@@ -137,12 +144,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02
@@ -151,12 +159,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -164,12 +173,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -177,12 +187,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0">
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">dm002
@@ -193,12 +204,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="0" shapeId="0">
+    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">dm02:
@@ -207,12 +219,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="0" shapeId="0">
+    <comment ref="AF2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -220,12 +233,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="0" shapeId="0">
+    <comment ref="AI2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -233,12 +247,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="0" shapeId="0">
+    <comment ref="AJ2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -246,12 +261,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="1" shapeId="0">
+    <comment ref="AK2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">SummeR:
@@ -265,17 +281,18 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>dm02</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">dm02:
@@ -283,12 +300,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -296,12 +314,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -309,12 +328,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -322,12 +342,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -335,12 +356,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -348,12 +370,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -361,12 +384,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -374,12 +398,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -387,12 +412,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -400,12 +426,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -414,12 +441,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -427,12 +455,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">dm02:
@@ -441,12 +470,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">dm02:
@@ -456,12 +486,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -469,12 +500,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -482,12 +514,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0" shapeId="0">
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -495,12 +528,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0">
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -509,12 +543,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0">
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -527,12 +562,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0">
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -547,17 +583,18 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>dm02</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">dm02:
@@ -566,12 +603,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">dm02:
@@ -580,12 +618,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">dm02:
@@ -594,12 +633,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">dm02:
@@ -608,12 +648,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -621,12 +662,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -634,12 +676,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -647,12 +690,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>dm02:
@@ -661,12 +705,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">dm02:
@@ -676,12 +721,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">dm02:
@@ -961,6 +1007,7 @@
         <sz val="12"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Bell</t>
@@ -970,6 +1017,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>429</t>
@@ -1074,6 +1122,7 @@
         <sz val="11"/>
         <color indexed="17"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>地点ID</t>
@@ -1169,6 +1218,7 @@
         <sz val="11"/>
         <color indexed="17"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>受灾地点ID</t>
@@ -1240,6 +1290,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>医疗型</t>
@@ -1253,6 +1304,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>基本型</t>
@@ -1267,6 +1319,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>基本型</t>
@@ -1281,6 +1334,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>基本型</t>
@@ -1293,6 +1347,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Bell</t>
@@ -1302,6 +1357,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>429基本型</t>
@@ -1317,6 +1373,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>飞机功能数据：</t>
@@ -1334,6 +1391,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">默认不带，可以选；
@@ -1351,6 +1409,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">已经选上，可取消；
@@ -1368,6 +1427,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">强制携带，不可取消；
@@ -1385,6 +1445,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>强制不带，不可选。</t>
@@ -1404,6 +1465,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>长鹰</t>
@@ -1420,6 +1482,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>基本型</t>
@@ -1546,6 +1609,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1568,6 +1632,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>)</t>
@@ -1588,6 +1653,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，坐标30.07°N 120.49°E，有救援人员120人，需进入灾区进行救援。
@@ -1597,6 +1663,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(物资中心)</t>
@@ -1605,6 +1672,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，坐标28.37°N, 121.38°E，有救援物资12000kg，2台重量为2吨的救援装备。
@@ -1614,6 +1682,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(安置点)</t>
@@ -1622,6 +1691,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，坐标29.70°N 120.24°E。
@@ -1631,6 +1701,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(安置点)</t>
@@ -1639,6 +1710,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，坐标29.28°N, 121.41°E，需要运入救援人员40人。(***级）
@@ -1651,6 +1723,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">级），预估灭火面积20000m2，需要40吨水扑灭（****级）。
@@ -1668,11 +1741,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1681,59 +1754,69 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="16"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="19"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <color indexed="54"/>
       <name val="等线 Light"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1741,6 +1824,7 @@
       <sz val="15"/>
       <color indexed="54"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1748,6 +1832,7 @@
       <sz val="11"/>
       <color indexed="54"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1755,6 +1840,7 @@
       <sz val="13"/>
       <color indexed="54"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1762,12 +1848,14 @@
       <sz val="11"/>
       <color indexed="23"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1775,6 +1863,7 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1782,6 +1871,7 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1789,6 +1879,7 @@
       <sz val="11"/>
       <color indexed="53"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1796,6 +1887,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1807,22 +1899,26 @@
       <sz val="12"/>
       <color indexed="63"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1833,39 +1929,40 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2248,7 +2345,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2293,38 +2390,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="25" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="4"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="5"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="6"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="8"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="11"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="12"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="16"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="18"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="标题" xfId="19" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="20" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="21" builtinId="17" customBuiltin="1"/>
@@ -2339,12 +2436,12 @@
     <cellStyle name="解释性文本" xfId="29" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="30" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="31" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="33"/>
-    <cellStyle name="强调文字颜色 3" xfId="34"/>
-    <cellStyle name="强调文字颜色 4" xfId="35"/>
-    <cellStyle name="强调文字颜色 5" xfId="36"/>
-    <cellStyle name="强调文字颜色 6" xfId="37"/>
+    <cellStyle name="强调文字颜色 1" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="强调文字颜色 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="强调文字颜色 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="强调文字颜色 4" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="强调文字颜色 5" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="强调文字颜色 6" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="适中" xfId="38" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="39" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="40" builtinId="20" customBuiltin="1"/>
@@ -2693,7 +2790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2752,14 +2849,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE5" sqref="AE5"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3448,7 +3545,7 @@
         <v>2</v>
       </c>
       <c r="W6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X6" s="3">
         <v>1200</v>
@@ -4460,14 +4557,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5717,7 +5814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -5725,7 +5822,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6248,7 +6345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -6286,7 +6383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>

--- a/data/SystemParameter.xlsx
+++ b/data/SystemParameter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\labWork\2021年3月4日-竞赛系统测试\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YuYX\Desktop\CompetitionSystem\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCD3F4D-B970-425B-A9DA-BC9004238985}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C357683F-C5F1-4ECF-A626-860E9976EF1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="24300" windowHeight="14850" tabRatio="790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="24300" windowHeight="14856" tabRatio="790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="规则" sheetId="4" r:id="rId1"/>
@@ -2797,15 +2797,15 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="3"/>
-    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="9.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="19.5546875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>6</v>
       </c>
@@ -2856,48 +2856,48 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" style="3" customWidth="1"/>
-    <col min="2" max="3" width="8.85546875" style="3"/>
-    <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="10.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="13" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="3"/>
-    <col min="7" max="7" width="12.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="3"/>
-    <col min="10" max="10" width="14.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="3" customWidth="1"/>
-    <col min="12" max="13" width="12.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="18.7109375" style="3" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="18.7109375" style="3" customWidth="1"/>
-    <col min="26" max="26" width="16.42578125" style="3" customWidth="1"/>
-    <col min="27" max="27" width="13.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="11.85546875" style="3" customWidth="1"/>
-    <col min="29" max="30" width="14.140625" style="3" customWidth="1"/>
-    <col min="31" max="32" width="18.7109375" style="3" customWidth="1"/>
-    <col min="33" max="33" width="16.42578125" style="3" customWidth="1"/>
-    <col min="34" max="35" width="14.85546875" style="3" customWidth="1"/>
-    <col min="36" max="36" width="8.85546875" style="3"/>
-    <col min="37" max="37" width="11.42578125" style="3" customWidth="1"/>
-    <col min="38" max="38" width="19.42578125" style="3" customWidth="1"/>
-    <col min="39" max="16384" width="8.85546875" style="3"/>
+    <col min="6" max="6" width="8.88671875" style="3"/>
+    <col min="7" max="7" width="12.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="3"/>
+    <col min="10" max="10" width="14.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="3" customWidth="1"/>
+    <col min="12" max="13" width="12.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="16.109375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="12.109375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="18.6640625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="15.109375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="12.5546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="18.6640625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="16.44140625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="13.5546875" style="3" customWidth="1"/>
+    <col min="28" max="28" width="11.88671875" style="3" customWidth="1"/>
+    <col min="29" max="30" width="14.109375" style="3" customWidth="1"/>
+    <col min="31" max="32" width="18.6640625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="16.44140625" style="3" customWidth="1"/>
+    <col min="34" max="35" width="14.88671875" style="3" customWidth="1"/>
+    <col min="36" max="36" width="8.88671875" style="3"/>
+    <col min="37" max="37" width="11.44140625" style="3" customWidth="1"/>
+    <col min="38" max="38" width="19.44140625" style="3" customWidth="1"/>
+    <col min="39" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>12</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:38" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>254</v>
       </c>
       <c r="I11" s="3">
-        <v>560</v>
+        <v>1000</v>
       </c>
       <c r="J11" s="3">
         <v>160</v>
@@ -4173,7 +4173,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="3" t="s">
         <v>93</v>
@@ -4529,20 +4529,20 @@
       <c r="M15" s="17"/>
       <c r="AI15" s="17"/>
     </row>
-    <row r="16" spans="1:38" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
     </row>
-    <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
     </row>
-    <row r="20" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>171</v>
       </c>
@@ -4564,35 +4564,35 @@
       <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="3" customWidth="1"/>
-    <col min="5" max="6" width="10.85546875" style="3" customWidth="1"/>
-    <col min="7" max="8" width="16.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="10.88671875" style="3" customWidth="1"/>
+    <col min="7" max="8" width="16.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" style="3" customWidth="1"/>
     <col min="12" max="12" width="19" style="3" customWidth="1"/>
     <col min="13" max="13" width="17" style="3" customWidth="1"/>
-    <col min="14" max="16" width="18.7109375" style="3" customWidth="1"/>
-    <col min="17" max="17" width="20.140625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="3" customWidth="1"/>
+    <col min="14" max="16" width="18.6640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="20.109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="3" customWidth="1"/>
     <col min="19" max="19" width="26" style="3" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" style="3" customWidth="1"/>
-    <col min="21" max="22" width="23.140625" style="3" customWidth="1"/>
-    <col min="23" max="26" width="14.140625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="8.85546875" style="3"/>
-    <col min="28" max="28" width="18.7109375" style="3" customWidth="1"/>
-    <col min="29" max="16384" width="8.85546875" style="3"/>
+    <col min="20" max="20" width="18.6640625" style="3" customWidth="1"/>
+    <col min="21" max="22" width="23.109375" style="3" customWidth="1"/>
+    <col min="23" max="26" width="14.109375" style="3" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" style="3"/>
+    <col min="28" max="28" width="18.6640625" style="3" customWidth="1"/>
+    <col min="29" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>118</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -5796,12 +5796,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E20" s="10"/>
     </row>
   </sheetData>
@@ -5822,29 +5822,29 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="6" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="6" width="16.44140625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>140</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>147</v>
       </c>
@@ -5929,7 +5929,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>8</v>
       </c>
@@ -5971,7 +5971,7 @@
       </c>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>9</v>
       </c>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>9</v>
       </c>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>10</v>
       </c>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>10</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>11</v>
       </c>
@@ -6186,7 +6186,7 @@
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>11</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>12</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>12</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>93</v>
       </c>
@@ -6317,22 +6317,22 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="5"/>
     </row>
   </sheetData>
@@ -6352,13 +6352,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="114.42578125" customWidth="1"/>
-    <col min="2" max="2" width="80.140625" customWidth="1"/>
+    <col min="1" max="1" width="114.44140625" customWidth="1"/>
+    <col min="2" max="2" width="80.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="324" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="324" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>177</v>
       </c>
@@ -6388,7 +6388,7 @@
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/SystemParameter.xlsx
+++ b/data/SystemParameter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YuYX\Desktop\CompetitionSystem\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C357683F-C5F1-4ECF-A626-860E9976EF1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F837EDEC-E407-407E-9ECE-94930B93725F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="24300" windowHeight="14856" tabRatio="790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="24300" windowHeight="14856" tabRatio="790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="规则" sheetId="4" r:id="rId1"/>
@@ -2852,11 +2852,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4560,11 +4560,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
+      <selection pane="bottomRight" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="3" t="b">
         <v>0</v>
@@ -5822,7 +5822,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
